--- a/doc/组件表.xlsx
+++ b/doc/组件表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15996\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\00_github\kube-ansible\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C1FBAAC-A523-4569-A415-C8C24E2E62D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6287CCCA-B6AF-4FED-87A0-24E06872CEEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>云组件名称</t>
   </si>
@@ -200,6 +200,13 @@
   <si>
     <t>2.10.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.0.2</t>
   </si>
 </sst>
 </file>
@@ -293,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -305,6 +312,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -585,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -813,6 +821,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="28" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/组件表.xlsx
+++ b/doc/组件表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15996\Desktop\k8s_install\kube_ansible\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\00_github\kube-ansible\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D3DCC8-51D3-49E6-AD11-B5E241C6E739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513188A-857F-45AD-B7E5-25195259A305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>云组件名称</t>
   </si>
@@ -452,6 +452,14 @@
   <si>
     <t>v3.8
 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingress-nginx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.8.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDB87A7-3167-448B-975F-6E7C4171D07E}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1106,145 +1114,155 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="4" t="s">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D25" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="2" t="s">
+    <row r="26" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A19:A20"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A15:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/组件表.xlsx
+++ b/doc/组件表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\00_github\kube-ansible\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15996\Desktop\k8s_install\kube_ansible\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5513188A-857F-45AD-B7E5-25195259A305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29BAACD-7580-4746-BD25-65CAEE18670D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>云组件名称</t>
   </si>
@@ -141,15 +141,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>独立部署prometheus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kubesphere内置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kubesphere内置prometheus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -265,7 +257,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">kubesphere
+      <t xml:space="preserve">v2.6.1
 </t>
     </r>
     <r>
@@ -277,7 +269,82 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-ks-installer
+      <t>-v1.0.8</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dashboard
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-metrics-scraper</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>srvio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还没开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.5.3-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.10.2-aarch64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来部署harbor和上传harbor镜像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>multus-cni
+-macvlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.8
+-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">kubesphere
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-kubefed
+-ks-installer
 -ks-controller-manager
 -ks-console
 -ks-apiserver
@@ -340,42 +407,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">v2.6.1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-v1.0.8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dashboard
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-metrics-scraper</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <rFont val="等线"/>
@@ -383,7 +414,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>v3.2.2</t>
+      <t>v3.2.2
+-v0.8.1</t>
     </r>
     <r>
       <rPr>
@@ -413,53 +445,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网络加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>srvio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还没开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>docker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3.5.3-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24.0.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.10.2-aarch64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用来部署harbor和上传harbor镜像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>multus-cni
--macvlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v3.8
--</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ingress-nginx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.8.1</t>
+    <t>kubesphere内置prometheus
+kubefed（集群联邦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metallb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadbalancer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">v1.8.1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-
+-v20230407</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ingress-nginx
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-controller
+-kube-webhook-certgen</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prometheus独立部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络加速组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDB87A7-3167-448B-975F-6E7C4171D07E}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -956,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -977,13 +1018,13 @@
     <row r="3" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -992,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1011,23 +1052,23 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1036,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -1086,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1107,162 +1148,172 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>58</v>
-      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A15:A18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/组件表.xlsx
+++ b/doc/组件表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15996\Desktop\k8s_install\kube_ansible\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29BAACD-7580-4746-BD25-65CAEE18670D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A6A06E-4C6B-4329-884A-67C329D591D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -130,10 +130,6 @@
   </si>
   <si>
     <t>基础管理组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gpu组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,6 +497,10 @@
   </si>
   <si>
     <t>网络加速组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>device组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDB87A7-3167-448B-975F-6E7C4171D07E}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -997,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1018,13 +1018,13 @@
     <row r="3" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1052,23 +1052,23 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1077,7 +1077,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="17"/>
     </row>
@@ -1127,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1148,30 +1148,30 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1187,14 +1187,14 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1202,25 +1202,25 @@
         <v>28</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="D21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1247,7 +1247,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>15</v>
@@ -1260,49 +1260,49 @@
     <row r="25" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="D27" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/组件表.xlsx
+++ b/doc/组件表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15996\Desktop\k8s_install\kube_ansible\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A6A06E-4C6B-4329-884A-67C329D591D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EA422E-EF3F-4AF9-A630-4D77F0141BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>云组件名称</t>
   </si>
@@ -501,6 +501,30 @@
   </si>
   <si>
     <t>device组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flannel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ingress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.22.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.14.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDB87A7-3167-448B-975F-6E7C4171D07E}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1153,14 +1177,18 @@
       <c r="C15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
       <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1173,147 +1201,163 @@
       <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
       <c r="B18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="2" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="4" t="s">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="2" t="s">
+    <row r="28" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/组件表.xlsx
+++ b/doc/组件表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15996\Desktop\k8s_install\kube_ansible\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EA422E-EF3F-4AF9-A630-4D77F0141BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBEC39C-BBEF-4F05-83DA-EFD293544B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-195" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="80">
   <si>
     <t>云组件名称</t>
   </si>
@@ -525,6 +525,22 @@
   </si>
   <si>
     <t>v0.14.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kubeovn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.13.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +595,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -589,12 +605,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,12 +699,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -718,6 +722,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCDB87A7-3167-448B-975F-6E7C4171D07E}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1028,7 +1038,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1040,7 +1050,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
@@ -1052,7 +1062,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1072,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1074,7 +1084,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1084,59 +1094,59 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="15"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="17"/>
+      <c r="D9" s="15"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="15"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1146,7 +1156,7 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1178,7 @@
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="44" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1182,7 +1192,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
@@ -1194,7 +1204,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
@@ -1206,7 +1216,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
@@ -1217,8 +1227,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1230,134 +1240,148 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="C21" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="2" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="4" t="s">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="2" t="s">
+    <row r="29" spans="1:4" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D29" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A26:A29"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="D7:D11"/>
     <mergeCell ref="A5:A13"/>
-    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
